--- a/regression/testcase_ConvertLab_Customer.xlsx
+++ b/regression/testcase_ConvertLab_Customer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="97">
   <si>
     <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动创建用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,10 +102,6 @@
   </si>
   <si>
     <t>新建用户002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入创建用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信公共号粉丝创建用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +134,6 @@
   </si>
   <si>
     <t>删除用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用删除用户功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用用户列表的筛选功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 使用测试账户登录到ConvertLab系统
 2 执行用例：新建用户001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用用户列表的搜索功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 点击客户-客户，点击导入
 2 编辑excel表格，在各列下输入10位用户，数字递增，具体如下,姓名：【葡萄酒爱好者00】，邮箱：【abcdefghijk2000@yahoo.com】，手机：【1234567890】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,10 +215,6 @@
   </si>
   <si>
     <t>用户列表查询003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用用户列表的列选择功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -266,125 +238,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手动建立静态目标组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 点击客户-目标组，点击新建目标组，选择静态目标组
-2 目标组名称：【知味葡萄酒新手】
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 在目标组列表中出现【知味葡萄酒新手】
-2 类型是静态目标组，客户数0
-3 创建时间和用例执行完毕的时间一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入目标组001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入目标组002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用客户编辑直接加入目标组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建目标组001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：新建用户001
-3 执行用例：新建目标组001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 点击客户-客户，选中【知味葡萄酒新手】查看
-2 点击加入目标组，选中【知味葡萄酒新手】点击加入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：新建用户001
-3 执行用例：新建目标组001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用手机微信进入ConverLab招聘微信公共号
-2 点击知味葡萄酒新手营销页，提交表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 在目标组列表中，知味葡萄酒新手静态目标组的客户人数增加1
-2 并且在知味葡萄酒新手静态目标组中多了一个用户葡萄酒爱好者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 在目标组列表中，知味葡萄酒新手静态目标组的客户人数增加1
-2 并且在知味葡萄酒新手静态目标组中多了一个微信用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立动态目标组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 使用测试账户登录到ConvertLab系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 智能目标组，知味葡萄酒新手培训，建立成功。
-2 目标组的客户符合筛选条件，人数准确
-3 创建时间准确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入目标组003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信渠道提交表单加入目标组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信渠道提交表单加入智能目标组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建目标组002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：新建目标组002
-3 执行用例：新建用户003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 发现手机微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 点击客户-目标组，然后点击【新建目标组】，选中新建智能目标组
-2 在目标组名称中输入【知味葡萄酒新手培训】；目标组条件中选择【微信事件】、【已关注公共号】、【ConverLab招聘】、【2016/1/1】到【2016/1/31】；选择满足以上所有条件
-3 点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 按顺序执行用例：新建目标组002；新建用户003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标组列表筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用目标组列表的筛选功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -512,6 +370,114 @@
 2 备注写明在知味葡萄酒主页申请会员
 3 该会员加5分
 4 时间和日期记录准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证手动可以正确创建用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证可以导入创建用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证加入微信公共号粉丝可以创建用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证使用删除用户功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证用户列表的筛选功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证用户列表的搜索功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证用户列表的列选择功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证静态目标组功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 点击客户-目标组，点击新建目标组，选择静态目标组
+2 目标组名称：【知味葡萄酒新手】
+3 点击客户-客户，选中某个客户加入刚建立的静态目标组
+4 访问某个营销页，通过营销页提交表单后加入静态目标组
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在目标组列表中出现【知味葡萄酒新手】
+2 创建静态目标组后客户数0
+3 创建时间和用例执行完毕的时间一致
+4 随着客户加入静态目标组，静态目标组客户数增加，并且客户时间轴显示目标组加入事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证动态目标组功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 智能目标组，知味葡萄酒新手培训，建立成功。
+2 目标组的客户符合筛选条件，人数准确
+3 创建时间准确
+4 随着客户的增加，智能目标组人数变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击客户-目标组，然后点击【新建目标组】，选中新建智能目标组
+2 在目标组名称中输入【知味葡萄酒新手培训】；目标组条件中选择【微信事件】、【已关注公共号】、【ConverLab招聘】、【2016/1/1】到【2016/1/31】；选择满足以上所有条件
+3 点击保存
+4 利用关注微信公众号新增一个客户，满足新建立的智能目标组条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证目标组列表的筛选功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标组001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标组002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证用户时间轴的显示是否完整正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 客户列表中一个客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 通过微信访问微页面并且提交表单
+2 加入某个静态目标组
+3 通过邮件功能给这个客户发送邮件
+4 通过工作流功能给这个客户创建一个用户任务
+5 为这个客户【记录事件】  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 时间轴上完整显示步骤中的事件
+2 所有事件的时间记录准确
+3 【积分】随事件记录在时间轴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,14 +556,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,9 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,6 +663,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -741,6 +715,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -917,19 +908,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="20.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="5" customWidth="1"/>
-    <col min="9" max="14" width="9" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="20.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="39.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="9" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -939,22 +932,22 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -976,30 +969,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="135" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>33</v>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
@@ -1018,30 +1011,30 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1060,30 +1053,30 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>35</v>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>3</v>
@@ -1109,23 +1102,23 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>3</v>
@@ -1151,23 +1144,23 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>3</v>
@@ -1193,23 +1186,23 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>47</v>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
@@ -1235,23 +1228,23 @@
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>53</v>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
@@ -1270,30 +1263,30 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>57</v>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
@@ -1312,36 +1305,36 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+    <row r="10" spans="1:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>66</v>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -1354,30 +1347,30 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+    <row r="11" spans="1:14" ht="135" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>67</v>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>3</v>
@@ -1396,30 +1389,30 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+    <row r="12" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>70</v>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>3</v>
@@ -1439,29 +1432,29 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>76</v>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>3</v>
@@ -1480,30 +1473,30 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+    <row r="14" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>82</v>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>3</v>
@@ -1522,30 +1515,30 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+    <row r="15" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>84</v>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>3</v>
@@ -1564,30 +1557,30 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+    <row r="16" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>92</v>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>3</v>
@@ -1606,30 +1599,30 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+    <row r="17" spans="1:14" ht="135" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>97</v>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>3</v>
@@ -1647,104 +1640,20 @@
         <v>18</v>
       </c>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J17">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M17">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K17">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I17">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
   </dataValidations>

--- a/regression/testcase_ConvertLab_Customer.xlsx
+++ b/regression/testcase_ConvertLab_Customer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="144">
   <si>
     <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,12 +480,221 @@
 3 【积分】随事件记录在时间轴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户_客户详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户详情003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试客户详情中部分新功能可用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账号登陆到ConvertLab系统
+2 不在客户列表中的微信用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1 微信用户通过某种方式成为新客户，访问为页面，提交表单，创建任务，领取卡劵，加入目标组
+2 客户详情-目前阶段，手动成为某一阶段
+3 客户详情-相关任务，手动选择某一任务为完成状态，且包含备注，具体内容信息私人化定制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 客户列表中成功增加1位新客户，主页中客户总数增加1
+2 客户详情中客户的创建方式、创建时间与实际信息一致，首次接触与实际动作一致，目前阶段显示手动操作的阶段
+3 时间轴中成功显示客户事件且与实际信息保持一致，事件中target name显示为链接，点击后在新的tab打开相关的页面、目标组、任务、卡劵等
+4 相关任务中测试任务成功显示为完成状态，点击进入该任务详情，备注成功添加且与实际一致
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建客户004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试关注微信公众号方式创建用户功能可用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 不在客户列表中的微信客户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微信用户关注【ConvertLab招聘】公众号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 客户列表中成功增加1位新客户，主页中客户总数增加1
+2 客户详情-时间轴，关注微信公众号Convertab招聘和客户被创建，创建方式：微信公众号粉丝事件被记录在时间轴中，创建时间为关注公众号时间
+3 客户详情-左侧，创建方式显示：微信公众号粉丝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户_客户详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式表单005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试提交嵌入式表单不影响关联客户的创建方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 执行用例：创建客户004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新建一个嵌入式表单，表单字段包含姓名，手机号码，邮箱，性别，并将该表单嵌入到外部页
+2 编辑新客户的手机号码，邮箱，内容私人化定制
+4 访问外部页，提交表单，填写内容中手机号码、邮箱与新客户的手机号码、邮箱一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该待测客户的创建方式不变</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建客户006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试手动创建客户功能可用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 手动创建1个新客户，内容信息私人化定制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 客户列表中成功增加1位新客户，主页中客户总数增加1
+2 客户详情-时间轴中产生一个事件【客户被创建，创建方式：手工创建】，创建时间是系统时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建客户007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试Excel文件导入方式创建客户功能可用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用Excel文件导入方式导入n位新客户，内容信息私人化定制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 客户列表中成功增加n位新客户，主页中客户总数增加n
+2 客户详情-时间轴中产生一个事件【客户被创建，创建方式：文件导入】，创建时间是系统时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建客户008</t>
+  </si>
+  <si>
+    <t>测试提交表单方式创建客户功能可用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用提交嵌入式(或微页面)表单方式创建新客户，内容信息私人化定制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 客户列表中成功增加1位新客户，主页中客户总数增加1
+2 客户详情-时间轴中产生两个事件【提交表单xxxx】【客户被创建，创建方式：提交表单】，创建时间是系统时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建客户009</t>
+  </si>
+  <si>
+    <t>测试微信授权的页面方式创建客户功能可用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 待测微信用户不在客户列表中
+3 微页面列表中存在待测微信授权的微页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微信用户访问该微信授权的页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 客户列表中成功增加1位新客户，主页中客户总数增加1
+2 客户详情-时间轴中产生两个事件【访问页面xxxx】【客户被创建，创建方式：访问微页面】，创建时间是系统时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户_目标组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建智能目标组002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试智能目标组数据处理过程失败时后台重新处理功能可用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账号登陆到ConvertLab系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新建1个智能目标组，条件为：客户属性-是否会员-是，阅读带标签内容-新手-次数-大等于-10，微信事件-删除微信卡劵，满足以下任意条件
+2 保存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功建立1个与预设信息一致的智能目标组，创建时间与实际创建时间保持一致
+2 该目标组详情中，目标组条件显示完整，与预设条件保持一致
+3 该智能目标组数据处理失败，重新处理，目标组显示数据正在处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +719,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -556,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +785,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="1"/>
@@ -630,7 +850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,26 +883,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,23 +918,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -908,9 +1094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1641,19 +1829,355 @@
       </c>
       <c r="N17" s="2"/>
     </row>
+    <row r="18" spans="1:14" s="5" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" s="5" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" s="5" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" s="5" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" s="5" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J25">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M25">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K25">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I25">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
   </dataValidations>
